--- a/data/outputs/social_change_market.xlsx
+++ b/data/outputs/social_change_market.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.556536895523328</v>
+        <v>6.556481541767042</v>
       </c>
       <c r="C2" t="n">
-        <v>5.865396680569847</v>
+        <v>5.865665756305589</v>
       </c>
       <c r="D2" t="n">
-        <v>3.386623416165061</v>
+        <v>3.386646266032944</v>
       </c>
       <c r="E2" t="n">
-        <v>3.351714639107684</v>
+        <v>3.351827781104409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1054123885774787</v>
+        <v>0.1053637962771219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01030784140059707</v>
+        <v>0.01028111063081897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05786011498903787</v>
+        <v>0.05782245345397046</v>
       </c>
       <c r="I2" t="n">
-        <v>991.146798</v>
+        <v>991.8900000000001</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.754320787269671</v>
+        <v>6.753758190928947</v>
       </c>
       <c r="C3" t="n">
-        <v>5.740297572744066</v>
+        <v>5.740654562099481</v>
       </c>
       <c r="D3" t="n">
-        <v>3.610244058181772</v>
+        <v>3.610304509829114</v>
       </c>
       <c r="E3" t="n">
-        <v>3.293352117941469</v>
+        <v>3.293535754246771</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1501295609821794</v>
+        <v>0.1500059078499697</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08777576671641966</v>
+        <v>0.08774017668590982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1189526638492996</v>
+        <v>0.1188730422679398</v>
       </c>
       <c r="I3" t="n">
-        <v>1098.635409435</v>
+        <v>1097.8</v>
       </c>
     </row>
     <row r="4">
@@ -549,28 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.176406323753619</v>
+        <v>7.176436703713743</v>
       </c>
       <c r="C4" t="n">
-        <v>6.540372232782253</v>
+        <v>6.54025578435668</v>
       </c>
       <c r="D4" t="n">
-        <v>3.567099507030935</v>
+        <v>3.5670913526701</v>
       </c>
       <c r="E4" t="n">
-        <v>3.348253433243713</v>
+        <v>3.348125430306065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08862849485906596</v>
+        <v>0.08864857945836056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06135126686425903</v>
+        <v>0.06138500551720693</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0749898808616625</v>
+        <v>0.07501679248778374</v>
       </c>
       <c r="I4" t="n">
-        <v>1253.48998666</v>
+        <v>1253.74</v>
       </c>
     </row>
     <row r="5">
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.694125410265836</v>
+        <v>6.69362706530291</v>
       </c>
       <c r="C5" t="n">
-        <v>6.067239431558511</v>
+        <v>6.067085744695006</v>
       </c>
       <c r="D5" t="n">
-        <v>3.606265381065418</v>
+        <v>3.606294256490952</v>
       </c>
       <c r="E5" t="n">
-        <v>3.543979853988131</v>
+        <v>3.543936672653496</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09364718171338081</v>
+        <v>0.09360266332369252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01727147630463234</v>
+        <v>0.01729131884488323</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05545932900900657</v>
+        <v>0.05544699108428788</v>
       </c>
       <c r="I5" t="n">
-        <v>916.681875405</v>
+        <v>919.0699999999999</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.0376859141354</v>
+        <v>6.461366681554265</v>
       </c>
       <c r="C6" t="n">
-        <v>5.058960803439203</v>
+        <v>5.228469977211299</v>
       </c>
       <c r="D6" t="n">
-        <v>3.454992824828453</v>
+        <v>3.622807801101682</v>
       </c>
       <c r="E6" t="n">
-        <v>3.064030867691344</v>
+        <v>3.149888706343738</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1621026871246831</v>
+        <v>0.190810515035868</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1131585438694856</v>
+        <v>0.1305393829101646</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1376306154970844</v>
+        <v>0.1606749489730163</v>
       </c>
       <c r="I6" t="n">
-        <v>1130.291076202</v>
+        <v>1090.61</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.557075885875363</v>
+        <v>8.571651193633953</v>
       </c>
       <c r="C7" t="n">
-        <v>7.550191236191527</v>
+        <v>7.438650040085387</v>
       </c>
       <c r="D7" t="n">
-        <v>3.990809309185889</v>
+        <v>3.97393899204244</v>
       </c>
       <c r="E7" t="n">
-        <v>3.549503512431679</v>
+        <v>3.604091607182529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1176669066761274</v>
+        <v>0.1321800348560649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1105805270470902</v>
+        <v>0.09306820904913411</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1141237168616088</v>
+        <v>0.1126241219525995</v>
       </c>
       <c r="I7" t="n">
-        <v>1308.337121726</v>
+        <v>1336.89</v>
       </c>
     </row>
     <row r="8">
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.772217859200212</v>
+        <v>6.77250101743731</v>
       </c>
       <c r="C8" t="n">
-        <v>5.990878113879883</v>
+        <v>5.990487493800043</v>
       </c>
       <c r="D8" t="n">
-        <v>3.605257462559964</v>
+        <v>3.605390852455937</v>
       </c>
       <c r="E8" t="n">
-        <v>3.387258829093125</v>
+        <v>3.387072202933465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1153742779049645</v>
+        <v>0.115468941477277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06046686976747733</v>
+        <v>0.06055339308739758</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08792057383622091</v>
+        <v>0.08801116728233729</v>
       </c>
       <c r="I8" t="n">
-        <v>883.7296229999999</v>
+        <v>883.95</v>
       </c>
     </row>
     <row r="9">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.471886547344963</v>
+        <v>7.47167987628069</v>
       </c>
       <c r="C10" t="n">
-        <v>6.876194620488122</v>
+        <v>6.876431258966517</v>
       </c>
       <c r="D10" t="n">
-        <v>3.47538182790817</v>
+        <v>3.475095044783813</v>
       </c>
       <c r="E10" t="n">
-        <v>3.336594412140532</v>
+        <v>3.336707901361557</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07972443412815361</v>
+        <v>0.07966730737539043</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03993443674394002</v>
+        <v>0.03982254920767635</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05982943543604681</v>
+        <v>0.0597449282915334</v>
       </c>
       <c r="I10" t="n">
-        <v>1418.829225805</v>
+        <v>1418.67</v>
       </c>
     </row>
     <row r="11">
@@ -766,28 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.149653569210779</v>
+        <v>7.149934604256667</v>
       </c>
       <c r="C11" t="n">
-        <v>6.019839407939381</v>
+        <v>6.020040126375021</v>
       </c>
       <c r="D11" t="n">
-        <v>3.337531527611409</v>
+        <v>3.337679838294162</v>
       </c>
       <c r="E11" t="n">
-        <v>3.064906740430755</v>
+        <v>3.065024713849749</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1580236231496337</v>
+        <v>0.1580286450744558</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08168455786117035</v>
+        <v>0.08169001751341207</v>
       </c>
       <c r="H11" t="n">
-        <v>0.119854090505402</v>
+        <v>0.1198593312939339</v>
       </c>
       <c r="I11" t="n">
-        <v>1552.48553</v>
+        <v>1553.2</v>
       </c>
     </row>
   </sheetData>
